--- a/Calculations/CostBenefit.xlsx
+++ b/Calculations/CostBenefit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daenu\Dropbox\Covid19\Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FA7BA5-7F78-476B-A12B-340AAF70756D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247CFBB5-D431-4622-A2A4-36A288055986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Cost Benefit Analysis</t>
   </si>
@@ -66,15 +66,19 @@
   </si>
   <si>
     <t>https://www.bfs.admin.ch/bfs/de/home/statistiken/arbeit-erwerb/loehne-erwerbseinkommen-arbeitskosten.assetdetail.13127534.html</t>
+  </si>
+  <si>
+    <t>Rounded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -134,10 +138,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -421,25 +425,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.1015625" customWidth="1"/>
-    <col min="5" max="5" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G2">
         <v>2017</v>
       </c>
@@ -450,7 +454,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -468,7 +472,7 @@
         <v>15808</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -476,89 +480,106 @@
         <v>135987</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="5">
         <f>D3/D4</f>
         <v>0.11520218844448367</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="C12">
         <v>-0.11</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>1/C12*(-100000)</f>
         <v>909090.90909090918</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f>E12*D$6</f>
         <v>104729.26222225789</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="C13">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f>1/C13*(-100000)</f>
         <v>344827.58620689658</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f>E13*D$6</f>
         <v>39724.89256706334</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13">
+        <v>345000</v>
+      </c>
+      <c r="J13">
+        <f>I13*D6</f>
+        <v>39744.755013346869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>-0.18</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f>1/C14*(-100000)</f>
         <v>555555.5555555555</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f>E14*D$6</f>
         <v>64001.215802490922</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>-0.22</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f>1/C15*(-100000)</f>
         <v>454545.45454545459</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f>E15*D$6</f>
         <v>52364.631111128947</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15">
+        <v>454000</v>
+      </c>
+      <c r="J15">
+        <f>I15*D6</f>
+        <v>52301.793553795585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -570,15 +591,15 @@
         <v>55040</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{FF86EEE8-CA2A-4C1D-8E98-36E8365E42DD}"/>
-    <hyperlink ref="A9" r:id="rId2" xr:uid="{FC69FEB4-D65A-4D4D-BFD2-E7839A5DF655}"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
